--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -52,7 +52,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>04/30/2017</t>
+    <t>06/08/2017</t>
   </si>
   <si>
     <t>Enrollment Fees</t>
@@ -144,55 +144,169 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>PE-01-08-03</t>
-  </si>
-  <si>
-    <t>02/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-02-51</t>
-  </si>
-  <si>
-    <t>03/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-18</t>
-  </si>
-  <si>
-    <t>04/13/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-17</t>
-  </si>
-  <si>
-    <t>03/19/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-16</t>
-  </si>
-  <si>
-    <t>04/06/2016</t>
-  </si>
-  <si>
-    <t>Pe-01-08-13</t>
-  </si>
-  <si>
-    <t>04/22/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-15</t>
-  </si>
-  <si>
-    <t>04/08/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-14</t>
-  </si>
-  <si>
-    <t>04/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-15</t>
+    <t>PE-01-02-53</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-01-16</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-41</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-28</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-13</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-29</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-27</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-08-18</t>
+  </si>
+  <si>
+    <t>PE-01-10-07</t>
+  </si>
+  <si>
+    <t>PE-01-07-17</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-23</t>
+  </si>
+  <si>
+    <t>PE-01-01-29</t>
+  </si>
+  <si>
+    <t>PE-01-10-09</t>
+  </si>
+  <si>
+    <t>PE-01-07-25</t>
+  </si>
+  <si>
+    <t>PE-01-06-24</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-03</t>
+  </si>
+  <si>
+    <t>PE-01-08-02</t>
+  </si>
+  <si>
+    <t>PE-01-06-25</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-04</t>
+  </si>
+  <si>
+    <t>PE-01-07-22</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>PE-01-K1-07</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-05</t>
+  </si>
+  <si>
+    <t>PE-01-07-26</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-08-12</t>
+  </si>
+  <si>
+    <t>PE-01-07-27</t>
+  </si>
+  <si>
+    <t>Pe-01-08-16</t>
+  </si>
+  <si>
+    <t>PE-01-09-14</t>
+  </si>
+  <si>
+    <t>Pe-01-08-17</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-08</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-12</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-01</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-02</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-04</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-05</t>
+  </si>
+  <si>
+    <t>PE-01-10-11</t>
   </si>
   <si>
     <r>
@@ -212,6 +326,346 @@
     </r>
   </si>
   <si>
+    <t>PE-01-06-22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">MARCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">APRIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> MAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">JUNE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> JULY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">AUGUST</t>
+    </r>
+  </si>
+  <si>
+    <t>PE-01-10-06</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-05</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-22</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-37</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-06</t>
+  </si>
+  <si>
+    <t>PE-01-01-12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">MAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">JULY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">AUGUST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">SEPTEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">OCTOBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">NOVEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">DECEMBER</t>
+    </r>
+  </si>
+  <si>
+    <t>PE-01-01-32</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-38</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">SEPTEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">OCTOBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">NOVEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">DECEMBER</t>
+    </r>
+  </si>
+  <si>
+    <t>PE-01-05-20</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR</t>
     </r>
@@ -239,645 +693,6 @@
       </rPr>
       <t xml:space="preserve">FEBRUARY</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">MARCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">APRIL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> MAY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JUNE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> JULY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">AUGUST</t>
-    </r>
-  </si>
-  <si>
-    <t>PE-01-01-40</t>
-  </si>
-  <si>
-    <t>05/12/2016</t>
-  </si>
-  <si>
-    <t>PE-01-02-52</t>
-  </si>
-  <si>
-    <t>06/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-09</t>
-  </si>
-  <si>
-    <t>07/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-06</t>
-  </si>
-  <si>
-    <t>08/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-03-39</t>
-  </si>
-  <si>
-    <t>05/23/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-20</t>
-  </si>
-  <si>
-    <t>PE-01-08-14</t>
-  </si>
-  <si>
-    <t>07/13/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-10</t>
-  </si>
-  <si>
-    <t>PE-01-06-16</t>
-  </si>
-  <si>
-    <t>PE-01-09-03</t>
-  </si>
-  <si>
-    <t>PE-01-09-02</t>
-  </si>
-  <si>
-    <t>07/05/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-01</t>
-  </si>
-  <si>
-    <t>08/09/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-19</t>
-  </si>
-  <si>
-    <t>05/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-05</t>
-  </si>
-  <si>
-    <t>PE-01-09-09</t>
-  </si>
-  <si>
-    <t>07/25/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-04</t>
-  </si>
-  <si>
-    <t>08/03/2016</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>05/30/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-10</t>
-  </si>
-  <si>
-    <t>08/31/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-06</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">MAY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JUNE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JULY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">AUGUST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">SEPTEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">OCTOBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">NOVEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">DECEMBER</t>
-    </r>
-  </si>
-  <si>
-    <t>PE-01-05-22</t>
-  </si>
-  <si>
-    <t>09/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-04-28</t>
-  </si>
-  <si>
-    <t>10/21/2016</t>
-  </si>
-  <si>
-    <t>PE-01-05-25</t>
-  </si>
-  <si>
-    <t>11/28/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-24</t>
-  </si>
-  <si>
-    <t>12/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-21</t>
-  </si>
-  <si>
-    <t>09/06/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-07</t>
-  </si>
-  <si>
-    <t>10/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-05-26</t>
-  </si>
-  <si>
-    <t>11/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-08</t>
-  </si>
-  <si>
-    <t>PE-01-09-07</t>
-  </si>
-  <si>
-    <t>PE-01-07-18</t>
-  </si>
-  <si>
-    <t>PE-01-07-13</t>
-  </si>
-  <si>
-    <t>PE-01-07-21</t>
-  </si>
-  <si>
-    <t>11/04/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-23</t>
-  </si>
-  <si>
-    <t>11/25/2016</t>
-  </si>
-  <si>
-    <t>PE-01-09-11</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">SEPTEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">OCTOBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">NOVEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">DECEMBER</t>
-    </r>
-  </si>
-  <si>
-    <t>PE-01-02-53</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-01-16</t>
-  </si>
-  <si>
-    <t>02/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-41</t>
-  </si>
-  <si>
-    <t>03/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-28</t>
-  </si>
-  <si>
-    <t>04/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-29</t>
-  </si>
-  <si>
-    <t>02/22/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-27</t>
-  </si>
-  <si>
-    <t>03/24/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-08-18</t>
-  </si>
-  <si>
-    <t>PE-01-10-07</t>
-  </si>
-  <si>
-    <t>PE-01-07-17</t>
-  </si>
-  <si>
-    <t>02/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-23</t>
-  </si>
-  <si>
-    <t>PE-01-01-29</t>
-  </si>
-  <si>
-    <t>PE-01-10-09</t>
-  </si>
-  <si>
-    <t>PE-01-07-25</t>
-  </si>
-  <si>
-    <t>PE-01-06-24</t>
-  </si>
-  <si>
-    <t>03/29/2017</t>
-  </si>
-  <si>
-    <t>04/25/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-03</t>
-  </si>
-  <si>
-    <t>PE-01-08-02</t>
-  </si>
-  <si>
-    <t>PE-01-06-25</t>
-  </si>
-  <si>
-    <t>04/27/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-04</t>
-  </si>
-  <si>
-    <t>PE-01-07-22</t>
-  </si>
-  <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-K1-07</t>
-  </si>
-  <si>
-    <t>04/28/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-05</t>
-  </si>
-  <si>
-    <t>PE-01-07-26</t>
-  </si>
-  <si>
-    <t>03/23/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-08-12</t>
-  </si>
-  <si>
-    <t>PE-01-07-27</t>
-  </si>
-  <si>
-    <t>Pe-01-08-16</t>
-  </si>
-  <si>
-    <t>PE-01-09-14</t>
-  </si>
-  <si>
-    <t>Pe-01-08-17</t>
-  </si>
-  <si>
-    <t>02/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-08</t>
-  </si>
-  <si>
-    <t>03/02/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-12</t>
-  </si>
-  <si>
-    <t>02/20/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-01</t>
-  </si>
-  <si>
-    <t>02/17/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-02</t>
-  </si>
-  <si>
-    <t>02/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-04</t>
-  </si>
-  <si>
-    <t>02/14/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-05</t>
-  </si>
-  <si>
-    <t>PE-01-10-11</t>
-  </si>
-  <si>
-    <t>PE-01-06-22</t>
   </si>
 </sst>
 </file>
@@ -1927,138 +1742,218 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14">
+        <v>740</v>
+      </c>
       <c r="E10" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" s="14">
-        <v>740</v>
+        <v>546</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" s="14">
         <v>740</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O10" s="14">
         <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14">
+        <v>740</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="14">
+        <v>780</v>
+      </c>
       <c r="I11" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="14">
+        <v>780</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="K11" s="14">
-        <v>740</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="O11" s="14">
         <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14">
+        <v>740</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14">
+        <v>740</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="14">
+        <v>780</v>
+      </c>
       <c r="M12" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O12" s="14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
         <v>740</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17"/>
-      <c r="M13" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="17">
+        <v>740</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="17">
+        <v>780</v>
+      </c>
+      <c r="M13" s="15"/>
       <c r="N13" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O13" s="17">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14">
+        <v>780</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="14">
         <v>740</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="14"/>
-      <c r="M14" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="I14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="14">
+        <v>740</v>
+      </c>
+      <c r="M14" s="15"/>
       <c r="N14" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O14" s="14">
-        <v>740</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="14">
+        <v>740</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="14">
+        <v>740</v>
+      </c>
       <c r="M15" s="15" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O15" s="14">
         <v>780</v>
@@ -2068,12 +1963,24 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17">
+        <v>740</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="17">
+        <v>740</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
@@ -2082,12 +1989,24 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="E17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="21">
+        <v>740</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="21">
+        <v>740</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -2096,12 +2015,24 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="E18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="21">
+        <v>740</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="21">
+        <v>740</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -2110,12 +2041,24 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="E19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="21">
+        <v>780</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="21">
+        <v>520</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
       <c r="O19" s="21"/>
@@ -2124,9 +2067,15 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="21">
+        <v>740</v>
+      </c>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
@@ -2138,9 +2087,15 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="21">
+        <v>780</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
@@ -2152,9 +2107,15 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="21">
+        <v>780</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
@@ -2166,9 +2127,15 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="21">
+        <v>780</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
@@ -2180,9 +2147,15 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="21">
+        <v>780</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
@@ -2194,9 +2167,15 @@
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="24">
+        <v>740</v>
+      </c>
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -2206,7 +2185,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -2214,15 +2193,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="25" t="str">
-        <f>SUM(G10:G25)</f>
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="25">
+        <v>740</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -2230,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -2241,22 +2221,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2339,209 +2319,143 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="12" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C31" s="14">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G31" s="14">
-        <v>740</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="14">
-        <v>740</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="14">
-        <v>740</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="14">
-        <v>740</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="E32" s="12" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G32" s="14">
-        <v>740</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="14">
-        <v>740</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O32" s="14">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="14">
-        <v>740</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="E33" s="26" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G33" s="14">
-        <v>740</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="14">
-        <v>740</v>
-      </c>
-      <c r="M33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" s="14">
-        <v>740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="17">
-        <v>740</v>
-      </c>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="E34" s="15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G34" s="17">
-        <v>740</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="14">
-        <v>740</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="17">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="E35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="14">
+        <v>780</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c r="K35" s="14"/>
-      <c r="M35" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35" s="14">
-        <v>740</v>
-      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
+      <c r="E36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="14">
+        <v>780</v>
+      </c>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c r="K36" s="14"/>
-      <c r="M36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O36" s="14">
-        <v>740</v>
-      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="E37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="17">
+        <v>780</v>
+      </c>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c r="K37" s="17"/>
@@ -2553,9 +2467,15 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="21">
+        <v>702</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
@@ -2567,9 +2487,15 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="E39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="21">
+        <v>702</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
@@ -2581,9 +2507,15 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="21">
+        <v>702</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
@@ -2595,9 +2527,15 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="21">
+        <v>780</v>
+      </c>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
@@ -2610,8 +2548,12 @@
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="21">
+        <v>780</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
@@ -2624,8 +2566,12 @@
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="21">
+        <v>780</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
@@ -2637,9 +2583,15 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="21">
+        <v>780</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
       <c r="K44" s="21"/>
@@ -2651,9 +2603,15 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="21">
+        <v>780</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
       <c r="K45" s="21"/>
@@ -2665,9 +2623,15 @@
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="24">
+        <v>780</v>
+      </c>
       <c r="I46" s="22"/>
       <c r="J46" s="23"/>
       <c r="K46" s="24"/>
@@ -2677,7 +2641,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2685,15 +2649,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="25" t="str">
-        <f>SUM(G31:G46)</f>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="25">
+        <v>780</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2701,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2709,30 +2674,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
-    <row r="49" spans="1:16" customHeight="1" ht="17.25">
+    <row r="48" spans="1:16" customHeight="1" ht="17.25" hidden="true"/>
+    <row r="49" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A49" s="33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="true">
       <c r="A50" s="6" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:16" customHeight="1" ht="17.25">
+    <row r="51" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A51" s="9" t="s">
         <v>12</v>
       </c>
@@ -2808,175 +2773,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="true">
       <c r="A52" s="12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C52" s="14">
-        <v>740</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="14">
-        <v>740</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K52" s="14">
-        <v>740</v>
-      </c>
-      <c r="M52" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>780</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" hidden="true">
       <c r="A53" s="12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C53" s="14">
-        <v>740</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="14">
-        <v>740</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K53" s="14">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="14"/>
       <c r="M53" s="12"/>
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="14">
-        <v>740</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="14">
-        <v>740</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K54" s="14">
-        <v>740</v>
-      </c>
+    <row r="54" spans="1:16" hidden="true">
+      <c r="A54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="14"/>
       <c r="M54" s="15"/>
       <c r="N54" s="16"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="17">
-        <v>740</v>
-      </c>
+    <row r="55" spans="1:16" hidden="true">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="17"/>
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
       <c r="G55" s="17"/>
-      <c r="I55" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K55" s="17">
-        <v>740</v>
-      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="17"/>
       <c r="M55" s="15"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="true">
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="I56" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="K56" s="14">
-        <v>740</v>
-      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="14"/>
       <c r="M56" s="15"/>
       <c r="N56" s="16"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="true">
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="14"/>
-      <c r="I57" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K57" s="14">
-        <v>740</v>
-      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="14"/>
       <c r="M57" s="15"/>
       <c r="N57" s="16"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" hidden="true">
       <c r="A58" s="15"/>
       <c r="B58" s="13"/>
       <c r="C58" s="17"/>
@@ -2990,7 +2883,7 @@
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="true">
       <c r="A59" s="15"/>
       <c r="B59" s="13"/>
       <c r="C59" s="21"/>
@@ -3004,7 +2897,7 @@
       <c r="N59" s="16"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="true">
       <c r="A60" s="15"/>
       <c r="B60" s="13"/>
       <c r="C60" s="21"/>
@@ -3018,7 +2911,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="true">
       <c r="A61" s="15"/>
       <c r="B61" s="13"/>
       <c r="C61" s="21"/>
@@ -3032,7 +2925,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="true">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="C62" s="21"/>
@@ -3046,7 +2939,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="true">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="C63" s="21"/>
@@ -3060,7 +2953,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="true">
       <c r="A64" s="15"/>
       <c r="B64" s="13"/>
       <c r="C64" s="21"/>
@@ -3074,7 +2967,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" hidden="true">
       <c r="A65" s="15"/>
       <c r="B65" s="13"/>
       <c r="C65" s="21"/>
@@ -3088,7 +2981,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" hidden="true">
       <c r="A66" s="15"/>
       <c r="B66" s="13"/>
       <c r="C66" s="21"/>
@@ -3102,7 +2995,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" spans="1:16" customHeight="1" ht="17.25">
+    <row r="67" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A67" s="15"/>
       <c r="B67" s="13"/>
       <c r="C67" s="24"/>
@@ -3116,9 +3009,9 @@
       <c r="N67" s="16"/>
       <c r="O67" s="24"/>
     </row>
-    <row r="68" spans="1:16" customHeight="1" ht="17.25">
+    <row r="68" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A68" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -3126,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -3134,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -3142,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -3150,10 +3043,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="69" spans="1:16" hidden="true"/>
     <row r="71" spans="1:16" customHeight="1" ht="17.25"/>
-    <row r="72" spans="1:16" customHeight="1" ht="27.75">
+    <row r="72" spans="1:16" customHeight="1" ht="27.75" hidden="true">
       <c r="A72" s="39">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -3170,8 +3064,8 @@
       <c r="N72" s="40"/>
       <c r="O72" s="41"/>
     </row>
-    <row r="73" spans="1:16" customHeight="1" ht="17.25"/>
-    <row r="74" spans="1:16" customHeight="1" ht="17.25">
+    <row r="73" spans="1:16" customHeight="1" ht="17.25" hidden="true"/>
+    <row r="74" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A74" s="33" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3087,7 @@
       <c r="N74" s="34"/>
       <c r="O74" s="35"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="true">
       <c r="A75" s="6" t="s">
         <v>9</v>
       </c>
@@ -3231,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:16" customHeight="1" ht="17.25">
+    <row r="76" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A76" s="9" t="s">
         <v>12</v>
       </c>
@@ -3269,341 +3163,159 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="true">
       <c r="A77" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C77" s="14">
         <v>740</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="14">
-        <v>546</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K77" s="14">
-        <v>740</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O77" s="14">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="14">
-        <v>740</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G78" s="14">
-        <v>780</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K78" s="14">
-        <v>780</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="N78" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O78" s="14">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="14">
-        <v>740</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G79" s="14">
-        <v>740</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K79" s="14">
-        <v>780</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O79" s="14">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="17">
-        <v>740</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G80" s="17">
-        <v>740</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K80" s="17">
-        <v>780</v>
-      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="14"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" hidden="true">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="14"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="14"/>
+    </row>
+    <row r="79" spans="1:16" hidden="true">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="14"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="14"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:16" hidden="true">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="17"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O80" s="17">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="14">
-        <v>780</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G81" s="14">
-        <v>740</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K81" s="14">
-        <v>740</v>
-      </c>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" spans="1:16" hidden="true">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="14"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="14"/>
       <c r="M81" s="15"/>
-      <c r="N81" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O81" s="14">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="N81" s="16"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:16" hidden="true">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="14"/>
-      <c r="E82" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G82" s="14">
-        <v>740</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="K82" s="14">
-        <v>740</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="O82" s="14">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="14"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="14"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="14"/>
+    </row>
+    <row r="83" spans="1:16" hidden="true">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
-      <c r="E83" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="17">
-        <v>740</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K83" s="17">
-        <v>740</v>
-      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="17"/>
       <c r="M83" s="15"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" hidden="true">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="E84" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G84" s="21">
-        <v>740</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J84" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K84" s="21">
-        <v>740</v>
-      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="21"/>
       <c r="M84" s="19"/>
       <c r="N84" s="20"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" hidden="true">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
-      <c r="E85" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="21">
-        <v>740</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K85" s="21">
-        <v>740</v>
-      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="21"/>
       <c r="M85" s="19"/>
       <c r="N85" s="20"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" hidden="true">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
-      <c r="E86" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G86" s="21">
-        <v>780</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J86" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K86" s="21">
-        <v>520</v>
-      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="21"/>
       <c r="M86" s="19"/>
       <c r="N86" s="20"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" hidden="true">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
-      <c r="E87" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="21">
-        <v>740</v>
-      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
       <c r="K87" s="21"/>
@@ -3611,19 +3323,13 @@
       <c r="N87" s="20"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" hidden="true">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
-      <c r="E88" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88" s="21">
-        <v>780</v>
-      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
       <c r="K88" s="21"/>
@@ -3631,19 +3337,13 @@
       <c r="N88" s="20"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" hidden="true">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
-      <c r="E89" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" s="21">
-        <v>780</v>
-      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
       <c r="K89" s="21"/>
@@ -3651,19 +3351,13 @@
       <c r="N89" s="20"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" hidden="true">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
-      <c r="E90" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G90" s="21">
-        <v>780</v>
-      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
       <c r="K90" s="21"/>
@@ -3671,19 +3365,13 @@
       <c r="N90" s="20"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="true">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
-      <c r="E91" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G91" s="21">
-        <v>780</v>
-      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
       <c r="K91" s="21"/>
@@ -3691,19 +3379,13 @@
       <c r="N91" s="20"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" spans="1:16" customHeight="1" ht="17.25">
+    <row r="92" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="24"/>
-      <c r="E92" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" s="24">
-        <v>740</v>
-      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
       <c r="I92" s="22"/>
       <c r="J92" s="23"/>
       <c r="K92" s="24"/>
@@ -3711,9 +3393,9 @@
       <c r="N92" s="23"/>
       <c r="O92" s="24"/>
     </row>
-    <row r="93" spans="1:16" customHeight="1" ht="17.25">
+    <row r="93" spans="1:16" customHeight="1" ht="17.25" hidden="true">
       <c r="A93" s="36" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -3721,16 +3403,15 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="25">
-        <v>740</v>
+        <v>105</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="25" t="str">
+        <f>SUM(G77:G92)</f>
+        <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3738,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">
@@ -3746,7 +3427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="94" spans="1:16" hidden="true"/>
+    <row r="95" spans="1:16" hidden="true">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -3764,7 +3446,7 @@
       <c r="O95" s="42"/>
       <c r="P95" s="44"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" hidden="true">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -3782,7 +3464,7 @@
       <c r="O96" s="45"/>
       <c r="P96" s="44"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="true">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -3800,7 +3482,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="44"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="true">
       <c r="A98" s="43"/>
       <c r="B98" s="46"/>
       <c r="C98" s="47"/>
@@ -3818,7 +3500,7 @@
       <c r="O98" s="47"/>
       <c r="P98" s="44"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="true">
       <c r="A99" s="43"/>
       <c r="B99" s="46"/>
       <c r="C99" s="47"/>
@@ -3836,7 +3518,7 @@
       <c r="O99" s="47"/>
       <c r="P99" s="44"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="true">
       <c r="A100" s="43"/>
       <c r="B100" s="46"/>
       <c r="C100" s="47"/>
@@ -3854,7 +3536,7 @@
       <c r="O100" s="47"/>
       <c r="P100" s="44"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="true">
       <c r="A101" s="43"/>
       <c r="B101" s="46"/>
       <c r="C101" s="47"/>
@@ -3872,7 +3554,7 @@
       <c r="O101" s="47"/>
       <c r="P101" s="44"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="true">
       <c r="A102" s="43"/>
       <c r="B102" s="46"/>
       <c r="C102" s="47"/>
@@ -3890,7 +3572,7 @@
       <c r="O102" s="47"/>
       <c r="P102" s="44"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="true">
       <c r="A103" s="43"/>
       <c r="B103" s="46"/>
       <c r="C103" s="47"/>
@@ -3908,7 +3590,7 @@
       <c r="O103" s="47"/>
       <c r="P103" s="44"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="true">
       <c r="A104" s="43"/>
       <c r="B104" s="46"/>
       <c r="C104" s="47"/>
@@ -3926,7 +3608,7 @@
       <c r="O104" s="47"/>
       <c r="P104" s="44"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="true">
       <c r="A105" s="43"/>
       <c r="B105" s="46"/>
       <c r="C105" s="47"/>
@@ -3944,7 +3626,7 @@
       <c r="O105" s="47"/>
       <c r="P105" s="44"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="true">
       <c r="A106" s="43"/>
       <c r="B106" s="46"/>
       <c r="C106" s="47"/>
@@ -3962,7 +3644,7 @@
       <c r="O106" s="47"/>
       <c r="P106" s="44"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="true">
       <c r="A107" s="43"/>
       <c r="B107" s="46"/>
       <c r="C107" s="47"/>
@@ -3980,7 +3662,7 @@
       <c r="O107" s="47"/>
       <c r="P107" s="44"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="true">
       <c r="A108" s="43"/>
       <c r="B108" s="46"/>
       <c r="C108" s="47"/>
@@ -3998,7 +3680,7 @@
       <c r="O108" s="47"/>
       <c r="P108" s="44"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="true">
       <c r="A109" s="43"/>
       <c r="B109" s="46"/>
       <c r="C109" s="47"/>
@@ -4016,7 +3698,7 @@
       <c r="O109" s="47"/>
       <c r="P109" s="44"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="true">
       <c r="A110" s="43"/>
       <c r="B110" s="46"/>
       <c r="C110" s="47"/>
@@ -4034,7 +3716,7 @@
       <c r="O110" s="47"/>
       <c r="P110" s="44"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="true">
       <c r="A111" s="43"/>
       <c r="B111" s="46"/>
       <c r="C111" s="47"/>
@@ -4052,7 +3734,7 @@
       <c r="O111" s="47"/>
       <c r="P111" s="44"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="true">
       <c r="A112" s="43"/>
       <c r="B112" s="46"/>
       <c r="C112" s="47"/>
@@ -4070,7 +3752,7 @@
       <c r="O112" s="47"/>
       <c r="P112" s="44"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="true">
       <c r="A113" s="43"/>
       <c r="B113" s="46"/>
       <c r="C113" s="47"/>
@@ -4088,7 +3770,7 @@
       <c r="O113" s="47"/>
       <c r="P113" s="44"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="true">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="C114" s="47"/>

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -55,7 +55,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>03/16/2016</t>
+    <t>03/31/2016</t>
   </si>
   <si>
     <t>Enrollment Fees</t>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>PE-01-06-17</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
   </si>
   <si>
     <r>
@@ -1604,9 +1610,15 @@
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="14">
+        <v>740</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -1817,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="25" t="str">
@@ -1825,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -1833,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -1844,22 +1856,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2166,7 +2178,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2174,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2182,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2190,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2201,22 +2213,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2523,7 +2535,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2539,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2547,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -2900,7 +2912,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -2908,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -2916,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -2924,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -55,7 +55,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>04/16/2016</t>
+    <t>06/16/2017</t>
   </si>
   <si>
     <t>Enrollment Fees</t>
@@ -147,58 +147,163 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>PE-01-02-36</t>
-  </si>
-  <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-03</t>
-  </si>
-  <si>
-    <t>02/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-02-51</t>
-  </si>
-  <si>
-    <t>03/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-06-18</t>
-  </si>
-  <si>
-    <t>04/13/2016</t>
-  </si>
-  <si>
-    <t>PE-01-01-95</t>
-  </si>
-  <si>
-    <t>PE-01-06-17</t>
-  </si>
-  <si>
-    <t>03/19/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-16</t>
-  </si>
-  <si>
-    <t>04/06/2016</t>
-  </si>
-  <si>
-    <t>PE-01-08-15</t>
-  </si>
-  <si>
-    <t>04/08/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-14</t>
-  </si>
-  <si>
-    <t>04/01/2016</t>
-  </si>
-  <si>
-    <t>PE-01-07-15</t>
+    <t>PE-01-02-53</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-01-16</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-41</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-28</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-13</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-29</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-27</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-08-18</t>
+  </si>
+  <si>
+    <t>PE-01-10-07</t>
+  </si>
+  <si>
+    <t>PE-01-07-17</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-23</t>
+  </si>
+  <si>
+    <t>PE-01-01-29</t>
+  </si>
+  <si>
+    <t>PE-01-10-09</t>
+  </si>
+  <si>
+    <t>PE-01-07-25</t>
+  </si>
+  <si>
+    <t>PE-01-06-24</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-03</t>
+  </si>
+  <si>
+    <t>PE-01-08-02</t>
+  </si>
+  <si>
+    <t>PE-01-06-25</t>
+  </si>
+  <si>
+    <t>PE-01-08-04</t>
+  </si>
+  <si>
+    <t>PE-01-07-22</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>PE-01-K1-07</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-05</t>
+  </si>
+  <si>
+    <t>PE-01-07-26</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Pe-01-08-12</t>
+  </si>
+  <si>
+    <t>PE-01-07-27</t>
+  </si>
+  <si>
+    <t>Pe-01-08-16</t>
+  </si>
+  <si>
+    <t>PE-01-09-14</t>
+  </si>
+  <si>
+    <t>Pe-01-08-17</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-08</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-12</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-01</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-02</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-04</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-05</t>
+  </si>
+  <si>
+    <t>PE-01-10-11</t>
   </si>
   <si>
     <r>
@@ -218,6 +323,357 @@
     </r>
   </si>
   <si>
+    <t>PE-01-06-22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">MARCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">APRIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> MAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">JUNE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> JULY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">AUGUST</t>
+    </r>
+  </si>
+  <si>
+    <t>PE-01-10-06</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-05</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-86</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PE-01-04-22</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-37</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>PE-01-01-06</t>
+  </si>
+  <si>
+    <t>PE-01-01-12</t>
+  </si>
+  <si>
+    <t>PE-01-02-59</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">MAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">JUNE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">JULY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">AUGUST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">SEPTEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">OCTOBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">NOVEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the Month of:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">DECEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">SEPTEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">OCTOBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">NOVEMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOTAL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">DECEMBER</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR</t>
     </r>
@@ -244,312 +700,6 @@
         <u val="none"/>
       </rPr>
       <t xml:space="preserve">FEBRUARY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">MARCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">APRIL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> MAY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JUNE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> JULY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">AUGUST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">MAY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JUNE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">JULY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">AUGUST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">SEPTEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">OCTOBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">NOVEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the Month of:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">DECEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">SEPTEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">OCTOBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">NOVEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">DECEMBER</t>
     </r>
   </si>
 </sst>
@@ -1609,7 +1759,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="14">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
@@ -1618,7 +1768,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="14">
-        <v>740</v>
+        <v>546</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>20</v>
@@ -1627,7 +1777,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="14">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>22</v>
@@ -1644,117 +1794,195 @@
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" s="14">
+        <v>740</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14">
         <v>780</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
       <c r="I11" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K11" s="14">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O11" s="14">
         <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14">
+        <v>740</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14">
+        <v>740</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="14">
+        <v>780</v>
+      </c>
       <c r="M12" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O12" s="14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17">
         <v>740</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17"/>
-      <c r="M13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="17">
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="17">
         <v>740</v>
       </c>
+      <c r="I13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="17">
+        <v>780</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="14"/>
-      <c r="M14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14">
+      <c r="A14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14">
         <v>780</v>
       </c>
+      <c r="E14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="14">
+        <v>740</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="14">
+        <v>740</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14">
+        <v>740</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="14">
+        <v>740</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="14">
+        <v>780</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
+      <c r="E16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17">
+        <v>740</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="17">
+        <v>740</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
@@ -1763,12 +1991,24 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="E17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="21">
+        <v>740</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="21">
+        <v>740</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -1777,12 +2017,24 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="E18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="21">
+        <v>740</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="21">
+        <v>740</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -1791,12 +2043,24 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="E19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="21">
+        <v>780</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="21">
+        <v>520</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
       <c r="O19" s="21"/>
@@ -1805,9 +2069,15 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="21">
+        <v>740</v>
+      </c>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
@@ -1819,9 +2089,15 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="21">
+        <v>780</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
@@ -1833,9 +2109,15 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="21">
+        <v>780</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
@@ -1847,9 +2129,15 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="21">
+        <v>780</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
@@ -1861,9 +2149,15 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="21">
+        <v>780</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
@@ -1875,9 +2169,15 @@
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="24">
+        <v>740</v>
+      </c>
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -1887,7 +2187,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -1895,15 +2195,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="25" t="str">
-        <f>SUM(G10:G25)</f>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="25">
+        <v>740</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -1911,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -1922,22 +2223,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2019,12 +2320,24 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="14">
+        <v>780</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="14">
+        <v>702</v>
+      </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
@@ -2033,12 +2346,24 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="14">
+        <v>780</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="14">
+        <v>780</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
@@ -2050,9 +2375,15 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
+      <c r="E33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="14">
+        <v>780</v>
+      </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
@@ -2064,9 +2395,15 @@
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="17">
+        <v>780</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
@@ -2078,9 +2415,15 @@
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="14"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="E35" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="14">
+        <v>780</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c r="K35" s="14"/>
@@ -2092,9 +2435,15 @@
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
+      <c r="E36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="14">
+        <v>780</v>
+      </c>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c r="K36" s="14"/>
@@ -2106,9 +2455,15 @@
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="E37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="17">
+        <v>780</v>
+      </c>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c r="K37" s="17"/>
@@ -2120,9 +2475,15 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="21">
+        <v>702</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
@@ -2134,9 +2495,15 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="E39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="21">
+        <v>702</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
@@ -2148,9 +2515,15 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="21">
+        <v>702</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
@@ -2162,9 +2535,15 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="21">
+        <v>780</v>
+      </c>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
@@ -2177,8 +2556,12 @@
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="21">
+        <v>780</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
@@ -2190,9 +2573,15 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="E43" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="21">
+        <v>780</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
@@ -2204,9 +2593,15 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="21">
+        <v>780</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
       <c r="K44" s="21"/>
@@ -2218,9 +2613,15 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="21">
+        <v>780</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
       <c r="K45" s="21"/>
@@ -2244,7 +2645,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2252,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2260,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2268,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2279,22 +2680,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2601,7 +3002,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2609,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2617,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2625,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -2636,7 +3037,7 @@
     <row r="71" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="72" spans="1:16" customHeight="1" ht="27.75">
       <c r="A72" s="39">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -2978,7 +3379,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -2986,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -2994,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3002,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -147,165 +147,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>PE-01-02-53</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-01-16</t>
-  </si>
-  <si>
-    <t>02/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-41</t>
-  </si>
-  <si>
-    <t>03/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-28</t>
-  </si>
-  <si>
-    <t>04/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-29</t>
-  </si>
-  <si>
-    <t>02/22/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-27</t>
-  </si>
-  <si>
-    <t>03/24/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-08-18</t>
-  </si>
-  <si>
-    <t>PE-01-10-07</t>
-  </si>
-  <si>
-    <t>PE-01-07-17</t>
-  </si>
-  <si>
-    <t>02/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-23</t>
-  </si>
-  <si>
-    <t>PE-01-01-29</t>
-  </si>
-  <si>
-    <t>PE-01-10-09</t>
-  </si>
-  <si>
-    <t>PE-01-07-25</t>
-  </si>
-  <si>
-    <t>PE-01-06-24</t>
-  </si>
-  <si>
-    <t>03/29/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-03</t>
-  </si>
-  <si>
-    <t>PE-01-08-02</t>
-  </si>
-  <si>
-    <t>PE-01-06-25</t>
-  </si>
-  <si>
-    <t>PE-01-08-04</t>
-  </si>
-  <si>
-    <t>PE-01-07-22</t>
-  </si>
-  <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-K1-07</t>
-  </si>
-  <si>
-    <t>04/28/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-05</t>
-  </si>
-  <si>
-    <t>PE-01-07-26</t>
-  </si>
-  <si>
-    <t>03/23/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-08-12</t>
-  </si>
-  <si>
-    <t>PE-01-07-27</t>
-  </si>
-  <si>
-    <t>Pe-01-08-16</t>
-  </si>
-  <si>
-    <t>PE-01-09-14</t>
-  </si>
-  <si>
-    <t>Pe-01-08-17</t>
-  </si>
-  <si>
-    <t>02/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-08</t>
-  </si>
-  <si>
-    <t>03/02/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-12</t>
-  </si>
-  <si>
-    <t>02/20/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-01</t>
-  </si>
-  <si>
-    <t>02/17/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-02</t>
-  </si>
-  <si>
-    <t>02/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-04</t>
-  </si>
-  <si>
-    <t>02/14/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-05</t>
-  </si>
-  <si>
-    <t>PE-01-10-11</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR </t>
     </r>
@@ -323,7 +164,33 @@
     </r>
   </si>
   <si>
-    <t>PE-01-06-22</t>
+    <r>
+      <t xml:space="preserve">TOTAL FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">FEBRUARY</t>
+    </r>
   </si>
   <si>
     <r>
@@ -428,46 +295,7 @@
     </r>
   </si>
   <si>
-    <t>PE-01-10-06</t>
-  </si>
-  <si>
-    <t>05/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-05</t>
-  </si>
-  <si>
-    <t>06/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-86</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PE-01-04-22</t>
-  </si>
-  <si>
-    <t>06/07/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-37</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>PE-01-01-06</t>
-  </si>
-  <si>
-    <t>PE-01-01-12</t>
-  </si>
-  <si>
-    <t>PE-01-02-59</t>
-  </si>
-  <si>
-    <t>06/08/2017</t>
   </si>
   <si>
     <r>
@@ -671,35 +499,6 @@
         <u val="none"/>
       </rPr>
       <t xml:space="preserve">DECEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">FEBRUARY</t>
     </r>
   </si>
 </sst>
@@ -1752,179 +1551,71 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14">
-        <v>740</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
-        <v>546</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="14">
-        <v>780</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="14">
-        <v>740</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14">
-        <v>740</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14">
-        <v>780</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="14">
-        <v>780</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="14">
-        <v>740</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14">
-        <v>740</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="14">
-        <v>740</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="14">
-        <v>780</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="14">
-        <v>780</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="17">
-        <v>740</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="17">
-        <v>740</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="17">
-        <v>780</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="17"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14">
-        <v>780</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="14">
-        <v>740</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="14">
-        <v>740</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="16"/>
       <c r="O14" s="14"/>
@@ -1933,56 +1624,26 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="14">
-        <v>740</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="14">
-        <v>740</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="14">
-        <v>780</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="17">
-        <v>740</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="17">
-        <v>740</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
@@ -1991,24 +1652,12 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="21">
-        <v>740</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="21">
-        <v>740</v>
-      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -2017,24 +1666,12 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="21">
-        <v>740</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="21">
-        <v>740</v>
-      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -2043,24 +1680,12 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="21">
-        <v>780</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="21">
-        <v>520</v>
-      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
       <c r="O19" s="21"/>
@@ -2069,15 +1694,9 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="E20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="21">
-        <v>740</v>
-      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
@@ -2089,15 +1708,9 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="E21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="21">
-        <v>780</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
@@ -2109,15 +1722,9 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="E22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="21">
-        <v>780</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
@@ -2129,15 +1736,9 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="E23" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="21">
-        <v>780</v>
-      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
@@ -2149,15 +1750,9 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
-      <c r="E24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="21">
-        <v>780</v>
-      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
@@ -2169,15 +1764,9 @@
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="E25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="24">
-        <v>740</v>
-      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -2187,7 +1776,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -2195,16 +1784,15 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="25">
-        <v>740</v>
+        <v>17</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="25" t="str">
+        <f>SUM(G10:G25)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -2212,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -2223,22 +1811,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2320,23 +1908,15 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="14">
         <v>780</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="14">
-        <v>702</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
@@ -2346,24 +1926,12 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="14">
-        <v>780</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="14">
-        <v>780</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
@@ -2375,15 +1943,9 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="E33" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="14">
-        <v>780</v>
-      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
@@ -2395,15 +1957,9 @@
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
-      <c r="E34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="17">
-        <v>780</v>
-      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
@@ -2415,15 +1971,9 @@
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="14"/>
-      <c r="E35" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="14">
-        <v>780</v>
-      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c r="K35" s="14"/>
@@ -2435,15 +1985,9 @@
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
-      <c r="E36" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="14">
-        <v>780</v>
-      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c r="K36" s="14"/>
@@ -2455,15 +1999,9 @@
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="E37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="17">
-        <v>780</v>
-      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c r="K37" s="17"/>
@@ -2475,15 +2013,9 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
-      <c r="E38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="21">
-        <v>702</v>
-      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
@@ -2495,15 +2027,9 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="E39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="21">
-        <v>702</v>
-      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
@@ -2515,15 +2041,9 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
-      <c r="E40" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="21">
-        <v>702</v>
-      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
@@ -2535,15 +2055,9 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="E41" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="21">
-        <v>780</v>
-      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
@@ -2556,12 +2070,8 @@
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="21">
-        <v>780</v>
-      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
@@ -2573,15 +2083,9 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="E43" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="21">
-        <v>780</v>
-      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
@@ -2593,15 +2097,9 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="E44" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="21">
-        <v>780</v>
-      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
       <c r="K44" s="21"/>
@@ -2613,15 +2111,9 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
-      <c r="E45" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="21">
-        <v>780</v>
-      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
       <c r="K45" s="21"/>
@@ -2645,7 +2137,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2653,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2661,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2669,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2680,22 +2172,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -3002,7 +2494,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -3010,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -3018,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -3026,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -3379,7 +2871,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -3387,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -3395,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3403,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -49,7 +49,7 @@
     <t>International Business Partner -</t>
   </si>
   <si>
-    <t>RODOLFO BAQUERIZO</t>
+    <t>MANOLO VEGA</t>
   </si>
   <si>
     <t>Reflects "Received Revenues" thru:</t>
@@ -153,88 +153,58 @@
     <t>01/27/2017</t>
   </si>
   <si>
-    <t>Pe-01-01-16</t>
+    <t>PE-01-04-29</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-27</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-02-54</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-22</t>
   </si>
   <si>
     <t>02/01/2017</t>
   </si>
   <si>
-    <t>PE-01-01-41</t>
+    <t>PE-01-06-23</t>
+  </si>
+  <si>
+    <t>PE-01-06-26</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-17</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-24</t>
   </si>
   <si>
     <t>03/01/2017</t>
   </si>
   <si>
-    <t>PE-01-01-29</t>
-  </si>
-  <si>
-    <t>04/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-29</t>
-  </si>
-  <si>
-    <t>02/22/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-27</t>
-  </si>
-  <si>
-    <t>03/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-28</t>
-  </si>
-  <si>
-    <t>PE-01-10-07</t>
-  </si>
-  <si>
-    <t>PE-01-06-22</t>
-  </si>
-  <si>
-    <t>PE-01-06-23</t>
-  </si>
-  <si>
-    <t>Pe-01-08-18</t>
-  </si>
-  <si>
-    <t>PE-01-10-09</t>
-  </si>
-  <si>
-    <t>PE-01-07-17</t>
-  </si>
-  <si>
-    <t>02/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-24</t>
-  </si>
-  <si>
-    <t>03/29/2017</t>
-  </si>
-  <si>
-    <t>PE-01-K1-07</t>
-  </si>
-  <si>
-    <t>04/28/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-03</t>
-  </si>
-  <si>
-    <t>PE-01-07-25</t>
-  </si>
-  <si>
-    <t>PE-01-06-25</t>
-  </si>
-  <si>
-    <t>PE-01-08-02</t>
+    <t>PE-01-10-06</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-16</t>
   </si>
   <si>
     <t>PE-01-07-22</t>
@@ -243,7 +213,10 @@
     <t>03/16/2017</t>
   </si>
   <si>
-    <t>PE-01-08-04</t>
+    <t>PE-01-08-17</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
   </si>
   <si>
     <t>PE-01-07-26</t>
@@ -252,37 +225,16 @@
     <t>03/23/2017</t>
   </si>
   <si>
-    <t>PE-01-08-05</t>
-  </si>
-  <si>
-    <t>PE-01-07-27</t>
-  </si>
-  <si>
-    <t>Pe-01-08-12</t>
-  </si>
-  <si>
-    <t>PE-01-09-14</t>
-  </si>
-  <si>
-    <t>Pe-01-08-16</t>
+    <t>PE-01-09-12</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
   </si>
   <si>
     <t>PE-01-10-08</t>
   </si>
   <si>
     <t>03/02/2017</t>
-  </si>
-  <si>
-    <t>Pe-01-08-17</t>
-  </si>
-  <si>
-    <t>02/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-12</t>
-  </si>
-  <si>
-    <t>02/20/2017</t>
   </si>
   <si>
     <t>PE-01-10-01</t>
@@ -323,7 +275,33 @@
     </r>
   </si>
   <si>
-    <t>PE-01-10-11</t>
+    <r>
+      <t xml:space="preserve">TOTAL FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">FEBRUARY</t>
+    </r>
   </si>
   <si>
     <r>
@@ -428,46 +406,49 @@
     </r>
   </si>
   <si>
-    <t>PE-01-01-86</t>
+    <t>PE-01-01-42</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-13</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-30</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-29</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-15</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>PE-01-01-05</t>
-  </si>
-  <si>
-    <t>06/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-06</t>
-  </si>
-  <si>
-    <t>05/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-06</t>
-  </si>
-  <si>
-    <t>06/07/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-12</t>
-  </si>
-  <si>
-    <t>PE-01-01-37</t>
-  </si>
-  <si>
-    <t>PE-01-02-59</t>
-  </si>
-  <si>
-    <t>06/08/2017</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>PE-01-04-22</t>
+    <t>PE-01-10-09</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-10</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-11</t>
   </si>
   <si>
     <r>
@@ -671,35 +652,6 @@
         <u val="none"/>
       </rPr>
       <t xml:space="preserve">DECEMBER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TOTAL FOR</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">FEBRUARY</t>
     </r>
   </si>
 </sst>
@@ -1768,7 +1720,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="14">
-        <v>546</v>
+        <v>780</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>20</v>
@@ -1790,143 +1742,113 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14">
+      <c r="G11" s="14">
         <v>740</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14">
-        <v>780</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="J11" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K11" s="14">
         <v>780</v>
       </c>
       <c r="M11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="14">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14">
-        <v>740</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="G12" s="14">
         <v>740</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12" s="14">
         <v>780</v>
       </c>
       <c r="M12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="O12" s="14">
         <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="17">
-        <v>740</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="17">
         <v>740</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="17">
+        <v>740</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="17">
+      <c r="G14" s="14">
         <v>780</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="J14" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="O13" s="17">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14">
-        <v>780</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="14">
-        <v>740</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="K14" s="14">
         <v>740</v>
@@ -1940,22 +1862,22 @@
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="E15" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G15" s="14">
         <v>740</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" s="14">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
@@ -1966,23 +1888,17 @@
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="E16" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G16" s="17">
-        <v>740</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="17">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
       <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
@@ -1992,23 +1908,17 @@
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="E17" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G17" s="21">
-        <v>740</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="21">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -2018,23 +1928,17 @@
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="E18" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G18" s="21">
-        <v>740</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="21">
-        <v>740</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -2044,23 +1948,17 @@
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="E19" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G19" s="21">
-        <v>740</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="21">
-        <v>520</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
       <c r="O19" s="21"/>
@@ -2069,15 +1967,9 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="E20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="21">
-        <v>780</v>
-      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
@@ -2089,15 +1981,9 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="E21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="21">
-        <v>740</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
@@ -2109,15 +1995,9 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="E22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="21">
-        <v>780</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
@@ -2129,15 +2009,9 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="E23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="21">
-        <v>780</v>
-      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
@@ -2149,15 +2023,9 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
-      <c r="E24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="21">
-        <v>780</v>
-      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
@@ -2169,15 +2037,9 @@
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="E25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="24">
-        <v>780</v>
-      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -2187,7 +2049,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -2195,16 +2057,15 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="25">
-        <v>740</v>
+        <v>54</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="25" t="str">
+        <f>SUM(G10:G25)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -2212,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -2223,22 +2084,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2321,22 +2182,22 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C31" s="14">
         <v>780</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G31" s="14">
-        <v>702</v>
+        <v>780</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
@@ -2347,23 +2208,17 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="12" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C32" s="14">
         <v>780</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="14">
-        <v>702</v>
-      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
@@ -2372,18 +2227,18 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="E33" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="14">
-        <v>702</v>
-      </c>
+      <c r="A33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="14">
+        <v>780</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
@@ -2392,18 +2247,18 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="E34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="17">
-        <v>702</v>
-      </c>
+      <c r="A34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="17">
+        <v>780</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
@@ -2412,18 +2267,18 @@
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="E35" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="A35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="14">
         <v>780</v>
       </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c r="K35" s="14"/>
@@ -2432,18 +2287,18 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="E36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="14">
+      <c r="A36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="14">
         <v>780</v>
       </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c r="K36" s="14"/>
@@ -2452,18 +2307,18 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="E37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="A37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="17">
         <v>780</v>
       </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c r="K37" s="17"/>
@@ -2475,15 +2330,9 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
-      <c r="E38" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="21">
-        <v>780</v>
-      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
@@ -2495,15 +2344,9 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="E39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="21">
-        <v>780</v>
-      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
@@ -2515,15 +2358,9 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
-      <c r="E40" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="21">
-        <v>780</v>
-      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
@@ -2535,15 +2372,9 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="E41" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="21">
-        <v>780</v>
-      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
@@ -2555,15 +2386,9 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
-      <c r="E42" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="21">
-        <v>780</v>
-      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
@@ -2575,15 +2400,9 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="E43" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="21">
-        <v>780</v>
-      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
@@ -2595,15 +2414,9 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="E44" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="21">
-        <v>780</v>
-      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
       <c r="K44" s="21"/>
@@ -2641,7 +2454,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2649,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2657,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2665,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2676,22 +2489,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2998,7 +2811,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -3006,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -3014,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -3022,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -3375,7 +3188,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -3383,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -3391,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3399,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -428,12 +428,6 @@
   </si>
   <si>
     <t>05/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-15</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>PE-01-10-09</t>
@@ -2291,7 +2285,7 @@
         <v>73</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="14">
         <v>780</v>
@@ -2307,15 +2301,9 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="17">
-        <v>780</v>
-      </c>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
@@ -2454,7 +2442,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2462,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2470,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2478,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2489,22 +2477,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2811,7 +2799,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2819,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2827,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2835,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -147,117 +147,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>PE-01-02-53</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-29</t>
-  </si>
-  <si>
-    <t>02/22/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-27</t>
-  </si>
-  <si>
-    <t>03/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-02-54</t>
-  </si>
-  <si>
-    <t>04/19/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-22</t>
-  </si>
-  <si>
-    <t>02/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-23</t>
-  </si>
-  <si>
-    <t>PE-01-06-26</t>
-  </si>
-  <si>
-    <t>04/21/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-17</t>
-  </si>
-  <si>
-    <t>02/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-24</t>
-  </si>
-  <si>
-    <t>03/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-06</t>
-  </si>
-  <si>
-    <t>04/18/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-16</t>
-  </si>
-  <si>
-    <t>PE-01-07-22</t>
-  </si>
-  <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-17</t>
-  </si>
-  <si>
-    <t>02/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-26</t>
-  </si>
-  <si>
-    <t>03/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-12</t>
-  </si>
-  <si>
-    <t>02/20/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-08</t>
-  </si>
-  <si>
-    <t>03/02/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-01</t>
-  </si>
-  <si>
-    <t>02/17/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-02</t>
-  </si>
-  <si>
-    <t>02/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-04</t>
-  </si>
-  <si>
-    <t>02/14/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-05</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR </t>
     </r>
@@ -404,45 +293,6 @@
       </rPr>
       <t xml:space="preserve">AUGUST</t>
     </r>
-  </si>
-  <si>
-    <t>PE-01-01-42</t>
-  </si>
-  <si>
-    <t>05/19/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>06/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-30</t>
-  </si>
-  <si>
-    <t>05/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-29</t>
-  </si>
-  <si>
-    <t>05/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-09</t>
-  </si>
-  <si>
-    <t>05/05/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-10</t>
-  </si>
-  <si>
-    <t>05/04/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-11</t>
   </si>
   <si>
     <r>
@@ -1698,129 +1548,57 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14">
-        <v>740</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
-        <v>780</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="14">
-        <v>780</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="14">
-        <v>780</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="14">
-        <v>740</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="14">
-        <v>780</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="14">
-        <v>780</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
-      <c r="E12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14">
-        <v>740</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="14">
-        <v>780</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="14">
-        <v>740</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17">
-        <v>740</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="17">
-        <v>740</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="17"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
@@ -1829,24 +1607,12 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="14">
-        <v>780</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="14">
-        <v>740</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="16"/>
       <c r="O14" s="14"/>
@@ -1855,24 +1621,12 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="14">
-        <v>740</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="14">
-        <v>520</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
       <c r="O15" s="14"/>
@@ -1881,15 +1635,9 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="17">
-        <v>780</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
@@ -1901,15 +1649,9 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="21">
-        <v>780</v>
-      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -1921,15 +1663,9 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="21">
-        <v>780</v>
-      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
@@ -1941,15 +1677,9 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="21">
-        <v>780</v>
-      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
@@ -2043,7 +1773,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -2051,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="25" t="str">
@@ -2059,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -2067,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -2078,22 +1808,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -2175,24 +1905,12 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="14">
-        <v>780</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="14">
-        <v>780</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
@@ -2201,15 +1919,9 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="14">
-        <v>780</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -2221,15 +1933,9 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="14">
-        <v>780</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -2241,15 +1947,9 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="17">
-        <v>780</v>
-      </c>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -2261,15 +1961,9 @@
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="14">
-        <v>780</v>
-      </c>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -2281,15 +1975,9 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="14">
-        <v>780</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -2442,7 +2130,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2450,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2458,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2466,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2477,22 +2165,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2799,7 +2487,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2807,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2815,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2823,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -2834,7 +2522,7 @@
     <row r="71" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="72" spans="1:16" customHeight="1" ht="27.75">
       <c r="A72" s="39">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -3176,7 +2864,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -3184,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -3192,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3200,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">
@@ -3208,7 +2896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="94" spans="1:16" hidden="true"/>
+    <row r="95" spans="1:16" hidden="true">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -3226,7 +2915,7 @@
       <c r="O95" s="42"/>
       <c r="P95" s="44"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" hidden="true">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -3244,7 +2933,7 @@
       <c r="O96" s="45"/>
       <c r="P96" s="44"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="true">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -3262,7 +2951,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="44"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="true">
       <c r="A98" s="43"/>
       <c r="B98" s="46"/>
       <c r="C98" s="47"/>
@@ -3280,7 +2969,7 @@
       <c r="O98" s="47"/>
       <c r="P98" s="44"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="true">
       <c r="A99" s="43"/>
       <c r="B99" s="46"/>
       <c r="C99" s="47"/>
@@ -3298,7 +2987,7 @@
       <c r="O99" s="47"/>
       <c r="P99" s="44"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="true">
       <c r="A100" s="43"/>
       <c r="B100" s="46"/>
       <c r="C100" s="47"/>
@@ -3316,7 +3005,7 @@
       <c r="O100" s="47"/>
       <c r="P100" s="44"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="true">
       <c r="A101" s="43"/>
       <c r="B101" s="46"/>
       <c r="C101" s="47"/>
@@ -3334,7 +3023,7 @@
       <c r="O101" s="47"/>
       <c r="P101" s="44"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="true">
       <c r="A102" s="43"/>
       <c r="B102" s="46"/>
       <c r="C102" s="47"/>
@@ -3352,7 +3041,7 @@
       <c r="O102" s="47"/>
       <c r="P102" s="44"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="true">
       <c r="A103" s="43"/>
       <c r="B103" s="46"/>
       <c r="C103" s="47"/>
@@ -3370,7 +3059,7 @@
       <c r="O103" s="47"/>
       <c r="P103" s="44"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="true">
       <c r="A104" s="43"/>
       <c r="B104" s="46"/>
       <c r="C104" s="47"/>
@@ -3388,7 +3077,7 @@
       <c r="O104" s="47"/>
       <c r="P104" s="44"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="true">
       <c r="A105" s="43"/>
       <c r="B105" s="46"/>
       <c r="C105" s="47"/>
@@ -3406,7 +3095,7 @@
       <c r="O105" s="47"/>
       <c r="P105" s="44"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="true">
       <c r="A106" s="43"/>
       <c r="B106" s="46"/>
       <c r="C106" s="47"/>
@@ -3424,7 +3113,7 @@
       <c r="O106" s="47"/>
       <c r="P106" s="44"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="true">
       <c r="A107" s="43"/>
       <c r="B107" s="46"/>
       <c r="C107" s="47"/>
@@ -3442,7 +3131,7 @@
       <c r="O107" s="47"/>
       <c r="P107" s="44"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="true">
       <c r="A108" s="43"/>
       <c r="B108" s="46"/>
       <c r="C108" s="47"/>
@@ -3460,7 +3149,7 @@
       <c r="O108" s="47"/>
       <c r="P108" s="44"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="true">
       <c r="A109" s="43"/>
       <c r="B109" s="46"/>
       <c r="C109" s="47"/>
@@ -3478,7 +3167,7 @@
       <c r="O109" s="47"/>
       <c r="P109" s="44"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="true">
       <c r="A110" s="43"/>
       <c r="B110" s="46"/>
       <c r="C110" s="47"/>
@@ -3496,7 +3185,7 @@
       <c r="O110" s="47"/>
       <c r="P110" s="44"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="true">
       <c r="A111" s="43"/>
       <c r="B111" s="46"/>
       <c r="C111" s="47"/>
@@ -3514,7 +3203,7 @@
       <c r="O111" s="47"/>
       <c r="P111" s="44"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="true">
       <c r="A112" s="43"/>
       <c r="B112" s="46"/>
       <c r="C112" s="47"/>
@@ -3532,7 +3221,7 @@
       <c r="O112" s="47"/>
       <c r="P112" s="44"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="true">
       <c r="A113" s="43"/>
       <c r="B113" s="46"/>
       <c r="C113" s="47"/>
@@ -3550,7 +3239,7 @@
       <c r="O113" s="47"/>
       <c r="P113" s="44"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="true">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="C114" s="47"/>
@@ -3568,7 +3257,7 @@
       <c r="O114" s="47"/>
       <c r="P114" s="44"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="true">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -3586,7 +3275,7 @@
       <c r="O115" s="43"/>
       <c r="P115" s="44"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="true">
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42"/>
@@ -3604,7 +3293,7 @@
       <c r="O116" s="42"/>
       <c r="P116" s="44"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="true">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -3622,7 +3311,7 @@
       <c r="O117" s="45"/>
       <c r="P117" s="44"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="true">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -3640,7 +3329,7 @@
       <c r="O118" s="45"/>
       <c r="P118" s="44"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="true">
       <c r="A119" s="43"/>
       <c r="B119" s="46"/>
       <c r="C119" s="47"/>
@@ -3658,7 +3347,7 @@
       <c r="O119" s="47"/>
       <c r="P119" s="44"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="true">
       <c r="A120" s="43"/>
       <c r="B120" s="46"/>
       <c r="C120" s="47"/>
@@ -3676,7 +3365,7 @@
       <c r="O120" s="47"/>
       <c r="P120" s="44"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" hidden="true">
       <c r="A121" s="43"/>
       <c r="B121" s="46"/>
       <c r="C121" s="47"/>
@@ -3694,7 +3383,7 @@
       <c r="O121" s="47"/>
       <c r="P121" s="44"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="true">
       <c r="A122" s="43"/>
       <c r="B122" s="46"/>
       <c r="C122" s="47"/>
@@ -3712,7 +3401,7 @@
       <c r="O122" s="47"/>
       <c r="P122" s="44"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" hidden="true">
       <c r="A123" s="43"/>
       <c r="B123" s="46"/>
       <c r="C123" s="47"/>
@@ -3730,7 +3419,7 @@
       <c r="O123" s="47"/>
       <c r="P123" s="44"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" hidden="true">
       <c r="A124" s="43"/>
       <c r="B124" s="46"/>
       <c r="C124" s="47"/>
@@ -3748,7 +3437,7 @@
       <c r="O124" s="47"/>
       <c r="P124" s="44"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" hidden="true">
       <c r="A125" s="43"/>
       <c r="B125" s="46"/>
       <c r="C125" s="47"/>
@@ -3766,7 +3455,7 @@
       <c r="O125" s="47"/>
       <c r="P125" s="44"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" hidden="true">
       <c r="A126" s="43"/>
       <c r="B126" s="46"/>
       <c r="C126" s="47"/>
@@ -3784,7 +3473,7 @@
       <c r="O126" s="47"/>
       <c r="P126" s="44"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="true">
       <c r="A127" s="43"/>
       <c r="B127" s="46"/>
       <c r="C127" s="47"/>
@@ -3802,7 +3491,7 @@
       <c r="O127" s="47"/>
       <c r="P127" s="44"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" hidden="true">
       <c r="A128" s="43"/>
       <c r="B128" s="46"/>
       <c r="C128" s="47"/>
@@ -3820,7 +3509,7 @@
       <c r="O128" s="47"/>
       <c r="P128" s="44"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" hidden="true">
       <c r="A129" s="43"/>
       <c r="B129" s="46"/>
       <c r="C129" s="47"/>
@@ -3838,7 +3527,7 @@
       <c r="O129" s="47"/>
       <c r="P129" s="44"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" hidden="true">
       <c r="A130" s="43"/>
       <c r="B130" s="46"/>
       <c r="C130" s="47"/>
@@ -3856,7 +3545,7 @@
       <c r="O130" s="47"/>
       <c r="P130" s="44"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" hidden="true">
       <c r="A131" s="43"/>
       <c r="B131" s="46"/>
       <c r="C131" s="47"/>
@@ -3874,7 +3563,7 @@
       <c r="O131" s="47"/>
       <c r="P131" s="44"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="true">
       <c r="A132" s="43"/>
       <c r="B132" s="46"/>
       <c r="C132" s="47"/>
@@ -3892,7 +3581,7 @@
       <c r="O132" s="47"/>
       <c r="P132" s="44"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" hidden="true">
       <c r="A133" s="43"/>
       <c r="B133" s="46"/>
       <c r="C133" s="47"/>
@@ -3910,7 +3599,7 @@
       <c r="O133" s="47"/>
       <c r="P133" s="44"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" hidden="true">
       <c r="A134" s="43"/>
       <c r="B134" s="46"/>
       <c r="C134" s="47"/>
@@ -3928,7 +3617,7 @@
       <c r="O134" s="47"/>
       <c r="P134" s="44"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" hidden="true">
       <c r="A135" s="49"/>
       <c r="B135" s="49"/>
       <c r="C135" s="47"/>

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -55,7 +55,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>06/16/2017</t>
+    <t>12/31/2017</t>
   </si>
   <si>
     <t>Enrollment Fees</t>
@@ -147,6 +147,117 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>PE-01-02-53</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-29</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>PE-01-05-27</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-02-54</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-22</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-23</t>
+  </si>
+  <si>
+    <t>PE-01-06-26</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-17</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-06-24</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-06</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-16</t>
+  </si>
+  <si>
+    <t>PE-01-07-22</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-17</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-26</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-12</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-08</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-01</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-02</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-04</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-05</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR </t>
     </r>
@@ -295,6 +406,87 @@
     </r>
   </si>
   <si>
+    <t>PE-01-01-42</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>PE-01-08-18</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-43</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>PE-01-01-44</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-30</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-13</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-27</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>PE-01-04-31</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>PE-01-07-29</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>PE-01-09-05</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-09</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-14</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-10</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-11</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR </t>
     </r>
@@ -429,6 +621,51 @@
       </rPr>
       <t xml:space="preserve">DECEMBER</t>
     </r>
+  </si>
+  <si>
+    <t>PE-01-01-45</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>PE-01-10-13</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>PE-01-11-03</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>PE-01-11-02</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>PE-01-11-05</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>PE-01-11-11</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>PE-01-12-04</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>PE-01-12-06</t>
   </si>
   <si>
     <r>
@@ -1548,57 +1785,129 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14">
+        <v>740</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="14">
+        <v>780</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="14">
+        <v>780</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14">
+        <v>780</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="14">
+        <v>740</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="14">
+        <v>780</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="14">
+        <v>780</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="14">
+        <v>740</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="14">
+        <v>780</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="14">
+        <v>740</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17"/>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17">
+        <v>740</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="17">
+        <v>740</v>
+      </c>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
@@ -1607,12 +1916,24 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="14"/>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14">
+        <v>780</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="14">
+        <v>740</v>
+      </c>
       <c r="M14" s="15"/>
       <c r="N14" s="16"/>
       <c r="O14" s="14"/>
@@ -1621,12 +1942,24 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="14">
+        <v>740</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="14">
+        <v>520</v>
+      </c>
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
       <c r="O15" s="14"/>
@@ -1635,9 +1968,15 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="17">
+        <v>780</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
@@ -1649,9 +1988,15 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="21">
+        <v>780</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -1663,9 +2008,15 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="21">
+        <v>780</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
@@ -1677,9 +2028,15 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="21">
+        <v>780</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
@@ -1773,7 +2130,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -1781,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="25" t="str">
@@ -1789,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -1797,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -1808,22 +2165,22 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
@@ -1905,65 +2262,143 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
+      <c r="A31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="14">
+        <v>780</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="14">
+        <v>780</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="14">
+        <v>780</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="14">
+        <v>780</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
+      <c r="A32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="14">
+        <v>780</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="14">
+        <v>780</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="14">
+        <v>780</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="14">
+        <v>780</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="14">
+        <v>780</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
+      <c r="I33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="14">
+        <v>740</v>
+      </c>
       <c r="M33" s="26"/>
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="17">
+        <v>780</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="14">
+        <v>780</v>
+      </c>
       <c r="M34" s="15"/>
       <c r="N34" s="13"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="14">
+        <v>780</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -1975,9 +2410,15 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="14">
+        <v>780</v>
+      </c>
       <c r="E36" s="26"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -2130,7 +2571,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2138,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2146,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2154,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2165,22 +2606,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2262,12 +2703,24 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="14">
+        <v>780</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="14">
+        <v>780</v>
+      </c>
       <c r="I52" s="12"/>
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
@@ -2276,12 +2729,24 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="14">
+        <v>780</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="14">
+        <v>390</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="18"/>
       <c r="K53" s="14"/>
@@ -2293,9 +2758,15 @@
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
+      <c r="E54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="14">
+        <v>780</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="18"/>
       <c r="K54" s="14"/>
@@ -2307,9 +2778,15 @@
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
       <c r="C55" s="17"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="17"/>
+      <c r="E55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="17">
+        <v>390</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="18"/>
       <c r="K55" s="17"/>
@@ -2321,9 +2798,15 @@
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="14">
+        <v>780</v>
+      </c>
       <c r="I56" s="15"/>
       <c r="J56" s="18"/>
       <c r="K56" s="14"/>
@@ -2335,9 +2818,15 @@
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="14"/>
+      <c r="E57" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="14">
+        <v>780</v>
+      </c>
       <c r="I57" s="15"/>
       <c r="J57" s="18"/>
       <c r="K57" s="14"/>
@@ -2487,7 +2976,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2495,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2503,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2511,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -2522,7 +3011,7 @@
     <row r="71" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="72" spans="1:16" customHeight="1" ht="27.75">
       <c r="A72" s="39">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -2864,7 +3353,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -2872,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -2880,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -2888,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -55,7 +55,7 @@
     <t>Reflects "Received Revenues" thru:</t>
   </si>
   <si>
-    <t>12/31/2017</t>
+    <t>06/16/2017</t>
   </si>
   <si>
     <t>Enrollment Fees</t>
@@ -412,22 +412,10 @@
     <t>05/18/2017</t>
   </si>
   <si>
-    <t>PE-01-08-18</t>
-  </si>
-  <si>
-    <t>06/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-43</t>
-  </si>
-  <si>
-    <t>07/15/2017</t>
-  </si>
-  <si>
-    <t>PE-01-01-44</t>
-  </si>
-  <si>
-    <t>08/18/2017</t>
+    <t>PE-01-09-13</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
   </si>
   <si>
     <t>PE-01-04-30</t>
@@ -436,46 +424,16 @@
     <t>05/24/2017</t>
   </si>
   <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>06/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-27</t>
-  </si>
-  <si>
-    <t>07/11/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-31</t>
-  </si>
-  <si>
-    <t>08/04/2017</t>
-  </si>
-  <si>
     <t>PE-01-07-29</t>
   </si>
   <si>
     <t>05/23/2017</t>
   </si>
   <si>
-    <t>PE-01-09-05</t>
-  </si>
-  <si>
-    <t>07/07/2017</t>
-  </si>
-  <si>
     <t>PE-01-10-09</t>
   </si>
   <si>
     <t>05/05/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-14</t>
-  </si>
-  <si>
-    <t>07/24/2017</t>
   </si>
   <si>
     <t>PE-01-10-10</t>
@@ -621,51 +579,6 @@
       </rPr>
       <t xml:space="preserve">DECEMBER</t>
     </r>
-  </si>
-  <si>
-    <t>PE-01-01-45</t>
-  </si>
-  <si>
-    <t>09/05/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-13</t>
-  </si>
-  <si>
-    <t>10/10/2017</t>
-  </si>
-  <si>
-    <t>PE-01-11-03</t>
-  </si>
-  <si>
-    <t>09/29/2017</t>
-  </si>
-  <si>
-    <t>PE-01-11-02</t>
-  </si>
-  <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>PE-01-11-05</t>
-  </si>
-  <si>
-    <t>10/03/2017</t>
-  </si>
-  <si>
-    <t>PE-01-11-11</t>
-  </si>
-  <si>
-    <t>10/06/2017</t>
-  </si>
-  <si>
-    <t>PE-01-12-04</t>
-  </si>
-  <si>
-    <t>10/26/2017</t>
-  </si>
-  <si>
-    <t>PE-01-12-06</t>
   </si>
   <si>
     <r>
@@ -2280,69 +2193,39 @@
       <c r="G31" s="14">
         <v>780</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="14">
-        <v>780</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" s="14">
-        <v>780</v>
-      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C32" s="14">
         <v>780</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="14">
-        <v>780</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="14">
-        <v>780</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O32" s="14">
-        <v>780</v>
-      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C33" s="14">
         <v>780</v>
@@ -2350,25 +2233,19 @@
       <c r="E33" s="26"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
-      <c r="I33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="14">
-        <v>740</v>
-      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
       <c r="M33" s="26"/>
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C34" s="17">
         <v>780</v>
@@ -2376,25 +2253,19 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="I34" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="14">
-        <v>780</v>
-      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
       <c r="M34" s="15"/>
       <c r="N34" s="13"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C35" s="14">
         <v>780</v>
@@ -2411,10 +2282,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C36" s="14">
         <v>780</v>
@@ -2571,7 +2442,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2579,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2587,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2595,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2606,22 +2477,22 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
@@ -2703,24 +2574,12 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="14">
-        <v>780</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="14">
-        <v>780</v>
-      </c>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
       <c r="I52" s="12"/>
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
@@ -2729,24 +2588,12 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="14">
-        <v>780</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="14">
-        <v>390</v>
-      </c>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
       <c r="I53" s="12"/>
       <c r="J53" s="18"/>
       <c r="K53" s="14"/>
@@ -2758,15 +2605,9 @@
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
-      <c r="E54" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="14">
-        <v>780</v>
-      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
       <c r="I54" s="12"/>
       <c r="J54" s="18"/>
       <c r="K54" s="14"/>
@@ -2778,15 +2619,9 @@
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
       <c r="C55" s="17"/>
-      <c r="E55" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="17">
-        <v>390</v>
-      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="17"/>
       <c r="I55" s="12"/>
       <c r="J55" s="18"/>
       <c r="K55" s="17"/>
@@ -2798,15 +2633,9 @@
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
-      <c r="E56" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="14">
-        <v>780</v>
-      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
       <c r="I56" s="15"/>
       <c r="J56" s="18"/>
       <c r="K56" s="14"/>
@@ -2818,15 +2647,9 @@
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
-      <c r="E57" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="14">
-        <v>780</v>
-      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="14"/>
       <c r="I57" s="15"/>
       <c r="J57" s="18"/>
       <c r="K57" s="14"/>
@@ -2976,7 +2799,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2984,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2992,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -3000,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">

--- a/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
+++ b/public_html/admin/reportesgenerados/EnrollmentFees-87.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">Renaissance</t>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>International Business Partner -</t>
-  </si>
-  <si>
-    <t>MANOLO VEGA</t>
   </si>
   <si>
     <t>Reflects "Received Revenues" thru:</t>
@@ -147,117 +144,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>PE-01-02-53</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-29</t>
-  </si>
-  <si>
-    <t>02/22/2017</t>
-  </si>
-  <si>
-    <t>PE-01-05-27</t>
-  </si>
-  <si>
-    <t>03/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-02-54</t>
-  </si>
-  <si>
-    <t>04/19/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-22</t>
-  </si>
-  <si>
-    <t>02/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-23</t>
-  </si>
-  <si>
-    <t>PE-01-06-26</t>
-  </si>
-  <si>
-    <t>04/21/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-17</t>
-  </si>
-  <si>
-    <t>02/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-06-24</t>
-  </si>
-  <si>
-    <t>03/01/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-06</t>
-  </si>
-  <si>
-    <t>04/18/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-16</t>
-  </si>
-  <si>
-    <t>PE-01-07-22</t>
-  </si>
-  <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
-    <t>PE-01-08-17</t>
-  </si>
-  <si>
-    <t>02/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-26</t>
-  </si>
-  <si>
-    <t>03/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-12</t>
-  </si>
-  <si>
-    <t>02/20/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-08</t>
-  </si>
-  <si>
-    <t>03/02/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-01</t>
-  </si>
-  <si>
-    <t>02/17/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-02</t>
-  </si>
-  <si>
-    <t>02/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-04</t>
-  </si>
-  <si>
-    <t>02/14/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-05</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">TOTAL FOR </t>
     </r>
@@ -404,45 +290,6 @@
       </rPr>
       <t xml:space="preserve">AUGUST</t>
     </r>
-  </si>
-  <si>
-    <t>PE-01-01-42</t>
-  </si>
-  <si>
-    <t>05/18/2017</t>
-  </si>
-  <si>
-    <t>PE-01-09-13</t>
-  </si>
-  <si>
-    <t>06/13/2017</t>
-  </si>
-  <si>
-    <t>PE-01-04-30</t>
-  </si>
-  <si>
-    <t>05/24/2017</t>
-  </si>
-  <si>
-    <t>PE-01-07-29</t>
-  </si>
-  <si>
-    <t>05/23/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-09</t>
-  </si>
-  <si>
-    <t>05/05/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-10</t>
-  </si>
-  <si>
-    <t>05/04/2017</t>
-  </si>
-  <si>
-    <t>PE-01-10-11</t>
   </si>
   <si>
     <r>
@@ -1559,29 +1406,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="5"/>
       <c r="I3" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="5" spans="1:16" customHeight="1" ht="27.75">
       <c r="A5" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1601,226 +1446,154 @@
     <row r="6" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="7" spans="1:16" customHeight="1" ht="17.25">
       <c r="A7" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="E7" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
       <c r="I7" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="35"/>
       <c r="M7" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" customHeight="1" ht="17.25">
       <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="M9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14">
-        <v>740</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
-        <v>780</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="14">
-        <v>780</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="14">
-        <v>780</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="14">
-        <v>740</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="14">
-        <v>780</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="14">
-        <v>780</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
-      <c r="E12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14">
-        <v>740</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="14">
-        <v>780</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="14">
-        <v>740</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17">
-        <v>740</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="17">
-        <v>740</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="17"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
@@ -1829,24 +1602,12 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="14">
-        <v>780</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="14">
-        <v>740</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="16"/>
       <c r="O14" s="14"/>
@@ -1855,24 +1616,12 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="14">
-        <v>740</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="14">
-        <v>520</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="16"/>
       <c r="O15" s="14"/>
@@ -1881,15 +1630,9 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="E16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="17">
-        <v>780</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
@@ -1901,15 +1644,9 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="E17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="21">
-        <v>780</v>
-      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -1921,15 +1658,9 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="E18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="21">
-        <v>780</v>
-      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
@@ -1941,15 +1672,9 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="21">
-        <v>780</v>
-      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
@@ -2043,7 +1768,7 @@
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="17.25">
       <c r="A26" s="36" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="25" t="str">
@@ -2051,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="25" t="str">
@@ -2059,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="25" t="str">
@@ -2067,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="25" t="str">
@@ -2078,121 +1803,109 @@
     <row r="27" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="28" spans="1:16" customHeight="1" ht="17.25">
       <c r="A28" s="33" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="E28" s="33" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="I28" s="33" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="33" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="M29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:16" customHeight="1" ht="17.25">
       <c r="A30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="M30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="O30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="14">
-        <v>780</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="14">
-        <v>780</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
@@ -2201,15 +1914,9 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="14">
-        <v>780</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -2221,15 +1928,9 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="14">
-        <v>780</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="E33" s="26"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -2241,15 +1942,9 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="17">
-        <v>780</v>
-      </c>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -2261,15 +1956,9 @@
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="14">
-        <v>780</v>
-      </c>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
       <c r="E35" s="26"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -2281,15 +1970,9 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="14">
-        <v>780</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
       <c r="E36" s="26"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -2442,7 +2125,7 @@
     </row>
     <row r="47" spans="1:16" customHeight="1" ht="17.25">
       <c r="A47" s="36" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="25" t="str">
@@ -2450,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25" t="str">
@@ -2458,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="25" t="str">
@@ -2466,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="25" t="str">
@@ -2477,100 +2160,100 @@
     <row r="48" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="49" spans="1:16" customHeight="1" ht="17.25">
       <c r="A49" s="33" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="E49" s="33" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
       <c r="I49" s="33" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="35"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="I50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="M50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="O50" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:16" customHeight="1" ht="17.25">
       <c r="A51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="K51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="M51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N51" s="10" t="s">
+      <c r="O51" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2799,7 +2482,7 @@
     </row>
     <row r="68" spans="1:16" customHeight="1" ht="17.25">
       <c r="A68" s="36" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="25" t="str">
@@ -2807,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="25" t="str">
@@ -2815,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="25" t="str">
@@ -2823,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="N68" s="36"/>
       <c r="O68" s="25" t="str">
@@ -2854,100 +2537,100 @@
     <row r="73" spans="1:16" customHeight="1" ht="17.25"/>
     <row r="74" spans="1:16" customHeight="1" ht="17.25">
       <c r="A74" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="35"/>
       <c r="E74" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="35"/>
       <c r="I74" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J74" s="34"/>
       <c r="K74" s="35"/>
       <c r="M74" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N74" s="34"/>
       <c r="O74" s="35"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="I75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="K75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="M75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="O75" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:16" customHeight="1" ht="17.25">
       <c r="A76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="G76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="K76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K76" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="M76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N76" s="10" t="s">
+      <c r="O76" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="O76" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -3176,7 +2859,7 @@
     </row>
     <row r="93" spans="1:16" customHeight="1" ht="17.25">
       <c r="A93" s="36" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="25" t="str">
@@ -3184,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="25" t="str">
@@ -3192,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J93" s="36"/>
       <c r="K93" s="25" t="str">
@@ -3200,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="36" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N93" s="36"/>
       <c r="O93" s="25" t="str">
